--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\tools\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>git</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>/courseleaf/index.tcf</t>
+  </si>
+  <si>
+    <t>*.git*</t>
+  </si>
+  <si>
+    <t>Ignore List</t>
   </si>
 </sst>
 </file>
@@ -146,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -161,6 +167,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +463,7 @@
     <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -464,8 +473,11 @@
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -476,7 +488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -487,7 +499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -495,7 +507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -511,10 +523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +536,7 @@
     <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -534,8 +546,11 @@
       <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -545,8 +560,11 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -556,8 +574,11 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -567,8 +588,11 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -576,7 +600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -584,7 +608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -595,11 +619,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -616,10 +640,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +653,7 @@
     <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -639,8 +663,11 @@
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -650,12 +677,15 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
@@ -672,10 +702,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +715,7 @@
     <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -695,12 +725,15 @@
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -717,10 +750,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +763,7 @@
     <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -740,12 +773,15 @@
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>git</t>
   </si>
@@ -99,9 +99,6 @@
     <t>command</t>
   </si>
   <si>
-    <t>republish</t>
-  </si>
-  <si>
     <t>/courseleaf/index.tcf</t>
   </si>
   <si>
@@ -109,6 +106,12 @@
   </si>
   <si>
     <t>Ignore List</t>
+  </si>
+  <si>
+    <t>/courseleaf/courseleaf.cgi -r</t>
+  </si>
+  <si>
+    <t>/bin</t>
   </si>
 </sst>
 </file>
@@ -452,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +477,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -505,6 +508,9 @@
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -526,7 +532,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -561,7 +567,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -575,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,7 +595,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -599,6 +605,9 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -607,16 +616,19 @@
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -726,7 +738,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -774,7 +786,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\tools\workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\tools\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="All" sheetId="5" r:id="rId1"/>
+    <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
     <sheet name="CAT" sheetId="1" r:id="rId2"/>
     <sheet name="CIM" sheetId="2" r:id="rId3"/>
-    <sheet name="-CLSS" sheetId="3" r:id="rId4"/>
-    <sheet name="-FocusSearch" sheetId="4" r:id="rId5"/>
+    <sheet name="FocusSearch" sheetId="4" r:id="rId4"/>
+    <sheet name="-CLSS" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,97 +28,163 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>git</t>
   </si>
   <si>
-    <t>courseleaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git </t>
-  </si>
-  <si>
-    <t>navmaster</t>
-  </si>
-  <si>
-    <t>pdfgen</t>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>cgi</t>
+  </si>
+  <si>
+    <t>/web/courseleaf</t>
+  </si>
+  <si>
+    <t>/web</t>
+  </si>
+  <si>
+    <t>/web/courseleaf/fonts</t>
+  </si>
+  <si>
+    <t>/web/courseleaf/js/ckeditor</t>
+  </si>
+  <si>
+    <t>/web/ribbit/ribbit.cgi</t>
+  </si>
+  <si>
+    <t>courseleaf.cgi</t>
+  </si>
+  <si>
+    <t>ribbit.cgi</t>
+  </si>
+  <si>
+    <t>Target (Relative to siteDir)</t>
+  </si>
+  <si>
+    <t>Pattern (if source is 'skeleton', this is relative to the 'release' directory.  If the pattern is a directory the entire directory will be refreshed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'git' repoitories are copied using 'rsync', all other files will be copied </t>
+  </si>
+  <si>
+    <t>*.git*</t>
+  </si>
+  <si>
+    <t>Ignore List</t>
+  </si>
+  <si>
+    <t>/bin</t>
+  </si>
+  <si>
+    <t>This file is read by the 'courseleafPatch' script and it informs the script what to do for each product installation</t>
+  </si>
+  <si>
+    <t>There is a worksheet for each product that can be installed, worksheets starting with a '-' character will be ignored</t>
+  </si>
+  <si>
+    <t>courseleaf /&lt;release&gt;/courseleaf</t>
+  </si>
+  <si>
+    <t>pdfgen /master/pdf</t>
+  </si>
+  <si>
+    <t>navmaster /master/navmaster</t>
+  </si>
+  <si>
+    <t>cim /&lt;release&gt;/cim</t>
+  </si>
+  <si>
+    <t>Pattern if source is 'skeleton', this is relative to the 'release' directory.  If the pattern is a directory the entire directory will be refreshed</t>
+  </si>
+  <si>
+    <t>source='git', then pattern is of the form &lt;git repository name&gt; &lt;repositiry directory root&gt;.  The string '&lt;release&gt; will be subitituted with the select product release string</t>
+  </si>
+  <si>
+    <t>source='command', then pattern is a unix command and target is passed to the command</t>
+  </si>
+  <si>
+    <t>source='skeleton', then pattern is the dirctory name under $skeletonRoot/release, target is the directory where the files will be copied to</t>
+  </si>
+  <si>
+    <t>cgiCommand</t>
+  </si>
+  <si>
+    <t>Notes on the product worksheets</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Rows with an empty source value will be ignored</t>
+  </si>
+  <si>
+    <t>Rows where the first character of the source value starts with an '* will be ignored</t>
+  </si>
+  <si>
+    <t>Patter syntax:</t>
+  </si>
+  <si>
+    <t>Subdirectories will be created as needed</t>
+  </si>
+  <si>
+    <t>source-'command', the command will be run in the  site home directory (i.e. the directory where courseleaf.cfg is located)</t>
+  </si>
+  <si>
+    <t>/web/&lt;progDir&gt;</t>
+  </si>
+  <si>
+    <t>/web/&lt;progDir&gt;/js</t>
+  </si>
+  <si>
+    <t>/bin/daily.sh</t>
+  </si>
+  <si>
+    <t>-r /&lt;progDir&gt;/index.tcf</t>
+  </si>
+  <si>
+    <t>/web/&lt;progDir&gt;/&lt;progDir&gt;.cgi</t>
+  </si>
+  <si>
+    <t>daily.sh</t>
+  </si>
+  <si>
+    <t>*git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*git </t>
+  </si>
+  <si>
+    <t>*skeleton</t>
   </si>
   <si>
     <t>skeleton</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>cgi</t>
-  </si>
-  <si>
-    <t>/web/courseleaf</t>
-  </si>
-  <si>
-    <t>/web</t>
-  </si>
-  <si>
-    <t>/web/courseleaf/fonts</t>
-  </si>
-  <si>
-    <t>/web/courseleaf/js/ckeditor</t>
-  </si>
-  <si>
-    <t>/web/ribbit/ribbit.cgi</t>
-  </si>
-  <si>
-    <t>/web/courseleaf/courseleaf.cgi</t>
-  </si>
-  <si>
-    <t>courseleaf.cgi</t>
-  </si>
-  <si>
-    <t>ribbit.cgi</t>
-  </si>
-  <si>
-    <t>cim</t>
-  </si>
-  <si>
-    <t>Target (Relative to siteDir)</t>
-  </si>
-  <si>
-    <t>Pattern (if source is 'skeleton', this is relative to the 'release' directory.  If the pattern is a directory the entire directory will be refreshed</t>
-  </si>
-  <si>
-    <t>/bin/daily*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">'git' repoitories are copied using 'rsync', all other files will be copied </t>
-  </si>
-  <si>
-    <t>command</t>
-  </si>
-  <si>
-    <t>/courseleaf/index.tcf</t>
-  </si>
-  <si>
-    <t>*.git*</t>
-  </si>
-  <si>
-    <t>Ignore List</t>
-  </si>
-  <si>
-    <t>/courseleaf/courseleaf.cgi -r</t>
-  </si>
-  <si>
-    <t>/bin</t>
+    <t>/web/courseleaf/focussearch</t>
+  </si>
+  <si>
+    <t>/web/&lt;progDir&gt;/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +200,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -143,7 +230,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -151,11 +238,278 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -173,6 +527,101 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +902,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D7"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="91.7109375" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="39"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>1</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="30"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A2:D20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A2:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="E28:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,59 +1240,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>25</v>
+      <c r="A2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B9" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -527,135 +1337,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,45 +1354,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>25</v>
+      <c r="A2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5"/>
+      <c r="C5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -712,8 +1421,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -729,16 +1439,16 @@
   <sheetData>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -747,58 +1457,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C4"/>
     </row>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
     <sheet name="CAT" sheetId="1" r:id="rId2"/>
     <sheet name="CIM" sheetId="2" r:id="rId3"/>
-    <sheet name="FocusSearch" sheetId="4" r:id="rId4"/>
-    <sheet name="-CLSS" sheetId="3" r:id="rId5"/>
+    <sheet name="CGIs" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>git</t>
   </si>
@@ -63,15 +62,6 @@
     <t>Target (Relative to siteDir)</t>
   </si>
   <si>
-    <t>Pattern (if source is 'skeleton', this is relative to the 'release' directory.  If the pattern is a directory the entire directory will be refreshed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">'git' repoitories are copied using 'rsync', all other files will be copied </t>
-  </si>
-  <si>
     <t>*.git*</t>
   </si>
   <si>
@@ -99,9 +89,6 @@
     <t>cim /&lt;release&gt;/cim</t>
   </si>
   <si>
-    <t>Pattern if source is 'skeleton', this is relative to the 'release' directory.  If the pattern is a directory the entire directory will be refreshed</t>
-  </si>
-  <si>
     <t>source='git', then pattern is of the form &lt;git repository name&gt; &lt;repositiry directory root&gt;.  The string '&lt;release&gt; will be subitituted with the select product release string</t>
   </si>
   <si>
@@ -162,22 +149,28 @@
     <t>daily.sh</t>
   </si>
   <si>
-    <t>*git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*git </t>
-  </si>
-  <si>
-    <t>*skeleton</t>
-  </si>
-  <si>
     <t>skeleton</t>
   </si>
   <si>
     <t>/web/courseleaf/focussearch</t>
   </si>
   <si>
-    <t>/web/&lt;progDir&gt;/</t>
+    <t>Pattern (see instructions sheet)</t>
+  </si>
+  <si>
+    <t>* cgi files</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>cgis</t>
+  </si>
+  <si>
+    <t>onChangeOnly</t>
+  </si>
+  <si>
+    <t>formbuilder /master/formbuilder</t>
   </si>
 </sst>
 </file>
@@ -230,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -245,51 +238,6 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -505,28 +453,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -535,93 +484,90 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,149 +849,148 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="B1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="91.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="44"/>
+    <col min="3" max="3" width="91.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-    </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="39"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="37"/>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="2:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="30"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="39"/>
+      <c r="C3" s="31"/>
+    </row>
+    <row r="4" spans="2:4" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="40">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="C4" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
+      <c r="C5" s="32"/>
+    </row>
+    <row r="6" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="32"/>
+    </row>
+    <row r="7" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="32"/>
+    </row>
+    <row r="8" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="40">
+        <v>1</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="2:4" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="43"/>
+      <c r="C11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="2:4" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="43"/>
+      <c r="C12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="43"/>
+      <c r="C13" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="2:4" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="30"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
-        <v>1</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="C15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="40"/>
+      <c r="C16" s="32"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="39"/>
+      <c r="C17" s="31"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="39"/>
+      <c r="C18" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B9:B15" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:D20"/>
+  <dimension ref="A3:D19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,169 +998,160 @@
     <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="B11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
+      <c r="B19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1226,110 +1162,103 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="E28:F29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="44" t="s">
+      <c r="B4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="16"/>
+      <c r="D4" s="26" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="16"/>
+      <c r="A5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="16"/>
+      <c r="A6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="16"/>
+      <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1339,130 +1268,91 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>15</v>
+      <c r="D2" s="21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="16"/>
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="16"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="D11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>git</t>
   </si>
@@ -74,9 +74,6 @@
     <t>This file is read by the 'courseleafPatch' script and it informs the script what to do for each product installation</t>
   </si>
   <si>
-    <t>There is a worksheet for each product that can be installed, worksheets starting with a '-' character will be ignored</t>
-  </si>
-  <si>
     <t>courseleaf /&lt;release&gt;/courseleaf</t>
   </si>
   <si>
@@ -89,21 +86,9 @@
     <t>cim /&lt;release&gt;/cim</t>
   </si>
   <si>
-    <t>source='git', then pattern is of the form &lt;git repository name&gt; &lt;repositiry directory root&gt;.  The string '&lt;release&gt; will be subitituted with the select product release string</t>
-  </si>
-  <si>
-    <t>source='command', then pattern is a unix command and target is passed to the command</t>
-  </si>
-  <si>
-    <t>source='skeleton', then pattern is the dirctory name under $skeletonRoot/release, target is the directory where the files will be copied to</t>
-  </si>
-  <si>
     <t>cgiCommand</t>
   </si>
   <si>
-    <t>Notes on the product worksheets</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Rows with an empty source value will be ignored</t>
   </si>
   <si>
@@ -128,9 +110,6 @@
     <t>Subdirectories will be created as needed</t>
   </si>
   <si>
-    <t>source-'command', the command will be run in the  site home directory (i.e. the directory where courseleaf.cfg is located)</t>
-  </si>
-  <si>
     <t>/web/&lt;progDir&gt;</t>
   </si>
   <si>
@@ -171,6 +150,44 @@
   </si>
   <si>
     <t>formbuilder /master/formbuilder</t>
+  </si>
+  <si>
+    <t>There is a worksheet for each product or product complent that can be installed, worksheets starting with a '-' character will be ignored</t>
+  </si>
+  <si>
+    <t>Notes on the process records on product worksheets</t>
+  </si>
+  <si>
+    <t>&lt;release&gt;</t>
+  </si>
+  <si>
+    <t>&lt;progDir&gt;</t>
+  </si>
+  <si>
+    <t>The string will be replaced with the either the version string from the source product clver file or with 'master' if the master git repository is used as the source for the refresh</t>
+  </si>
+  <si>
+    <t>The string will be replace with the string of the courseleaf program directory, i.e. 'courseleaf' or 'pagewiz'</t>
+  </si>
+  <si>
+    <t>source='git', then 
+pattern is of the form &lt;git repository name&gt; &lt;repositiry directory root&gt;.  The string 
+target is the location under the site directory to copy the files</t>
+  </si>
+  <si>
+    <t>source='skeleton', then pattern is the dirctory name under $skeletonRoot/release, 
+target is the directory where the files will be copied to</t>
+  </si>
+  <si>
+    <t>source='cgiCommand', then pattern is a courseleaf cgi command
+target os 'always' to always run or 'OnChangesOnly' to run only if something was changed in previous steps</t>
+  </si>
+  <si>
+    <t>source='command', then pattern is a unix command and target is passed to the command
+command will be run in the site home directory (i.e. the directory where courseleaf.cfg is located)</t>
+  </si>
+  <si>
+    <t>Substitution variables in process records</t>
   </si>
 </sst>
 </file>
@@ -406,15 +423,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -454,21 +462,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -509,64 +536,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,137 +879,157 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:D18"/>
+  <dimension ref="B1:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="44"/>
+    <col min="2" max="2" width="9.140625" style="35"/>
     <col min="3" max="3" width="91.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="37"/>
-      <c r="C1" s="22"/>
-    </row>
-    <row r="2" spans="2:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="33"/>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="2:4" s="6" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="39"/>
-      <c r="C3" s="31"/>
-    </row>
-    <row r="4" spans="2:4" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="40">
+      <c r="B3" s="33"/>
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="2:4" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="33">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
-      <c r="C5" s="32"/>
-    </row>
-    <row r="6" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
-      <c r="C6" s="32"/>
-    </row>
-    <row r="7" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="C4" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="33"/>
+      <c r="C5" s="30"/>
+    </row>
+    <row r="6" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="30"/>
+    </row>
+    <row r="7" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="30"/>
+    </row>
+    <row r="8" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="41">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="32"/>
-    </row>
-    <row r="8" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="40">
-        <v>1</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="35"/>
-    </row>
-    <row r="9" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="35"/>
-    </row>
-    <row r="10" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="43" t="s">
+      <c r="D10" s="32"/>
+    </row>
+    <row r="11" spans="2:4" s="31" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="43"/>
+      <c r="C11" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="2:4" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="43"/>
+      <c r="C12" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="2:4" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="43"/>
+      <c r="C13" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="32"/>
+    </row>
+    <row r="14" spans="2:4" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="43"/>
+      <c r="C14" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="35"/>
-    </row>
-    <row r="11" spans="2:4" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
-      <c r="C11" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="35"/>
-    </row>
-    <row r="12" spans="2:4" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="35"/>
-    </row>
-    <row r="13" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
-      <c r="C13" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="35"/>
-    </row>
-    <row r="14" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="35"/>
-    </row>
-    <row r="15" spans="2:4" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="35"/>
-    </row>
-    <row r="16" spans="2:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
-      <c r="C16" s="32"/>
+      <c r="D15" s="32"/>
+    </row>
+    <row r="16" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="41"/>
+      <c r="C16" s="39"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="40"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="40"/>
+    </row>
+    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="41"/>
+      <c r="C21" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B9:B15" numberStoredAsText="1"/>
+    <ignoredError sqref="B14:B15 B9:B12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -990,7 +1040,7 @@
   <dimension ref="A3:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>10</v>
@@ -1020,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>4</v>
@@ -1034,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>11</v>
@@ -1048,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>11</v>
@@ -1059,70 +1109,70 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="29"/>
+      <c r="A10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>13</v>
@@ -1181,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>10</v>
@@ -1191,63 +1241,63 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>13</v>
@@ -1255,7 +1305,7 @@
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -1287,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>10</v>
@@ -1304,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D3" s="11"/>
     </row>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
     <sheet name="CAT" sheetId="1" r:id="rId2"/>
     <sheet name="CIM" sheetId="2" r:id="rId3"/>
-    <sheet name="CGIs" sheetId="7" r:id="rId4"/>
+    <sheet name="Include-CGIs" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>git</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>/web/ribbit/ribbit.cgi</t>
-  </si>
-  <si>
-    <t>courseleaf.cgi</t>
   </si>
   <si>
     <t>ribbit.cgi</t>
@@ -188,6 +185,21 @@
   </si>
   <si>
     <t>Substitution variables in process records</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>chmod 750 ./web/&lt;progDir&gt;</t>
+  </si>
+  <si>
+    <t>chmod 750 ./web/ribbit/ribbit.cgi</t>
+  </si>
+  <si>
+    <t>&lt;progDir&gt;.cgi</t>
+  </si>
+  <si>
+    <t>chmod 750 ./web/&lt;progDir&gt;/&lt;progDir&gt;.cgi</t>
   </si>
 </sst>
 </file>
@@ -495,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -598,6 +610,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,7 +914,7 @@
     </row>
     <row r="2" spans="2:4" s="6" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="36"/>
     </row>
@@ -910,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -923,7 +940,7 @@
     </row>
     <row r="7" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="30"/>
     </row>
@@ -932,62 +949,62 @@
         <v>1</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="32"/>
     </row>
     <row r="9" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="32"/>
     </row>
     <row r="10" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="32"/>
     </row>
     <row r="11" spans="2:4" s="31" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43"/>
       <c r="C11" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="32"/>
     </row>
     <row r="12" spans="2:4" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="43"/>
       <c r="C12" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="32"/>
     </row>
     <row r="13" spans="2:4" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="43"/>
       <c r="C13" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="32"/>
     </row>
     <row r="14" spans="2:4" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="43"/>
       <c r="C14" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="32"/>
     </row>
     <row r="15" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="32"/>
     </row>
@@ -997,7 +1014,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="40"/>
     </row>
@@ -1007,18 +1024,18 @@
     </row>
     <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -1037,10 +1054,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A3:D19"/>
+  <dimension ref="A3:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,13 +1073,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1070,28 +1087,26 @@
         <v>0</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>17</v>
+        <v>51</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>11</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
@@ -1101,42 +1116,44 @@
         <v>16</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>33</v>
+      <c r="A7" s="16" t="s">
+        <v>0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>27</v>
@@ -1144,52 +1161,61 @@
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="11"/>
+      <c r="C11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+      <c r="A13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
@@ -1202,6 +1228,9 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1214,8 +1243,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,13 +1260,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1245,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,48 +1288,48 @@
         <v>0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -1318,16 +1347,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
@@ -1336,58 +1365,72 @@
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>35</v>
+      <c r="B2" s="46" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="D8"/>
+      <c r="A6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -1403,6 +1446,16 @@
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="D13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>git</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>chmod 750 ./web/&lt;progDir&gt;/&lt;progDir&gt;.cgi</t>
+  </si>
+  <si>
+    <t>#command</t>
   </si>
 </sst>
 </file>
@@ -1056,8 +1059,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,7 +1392,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>55</v>
@@ -1413,7 +1416,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>53</v>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>git</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>#command</t>
+  </si>
+  <si>
+    <t>/email</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1060,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A3:D20"/>
+  <dimension ref="A3:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,52 +1179,61 @@
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B12" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
@@ -1234,6 +1246,9 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1244,10 +1259,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,21 +1341,33 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
   <si>
     <t>git</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>* cgi files</t>
-  </si>
-  <si>
-    <t>include</t>
   </si>
   <si>
     <t>cgis</t>
@@ -206,6 +203,12 @@
   </si>
   <si>
     <t>/email</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>#include</t>
   </si>
 </sst>
 </file>
@@ -933,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -946,7 +949,7 @@
     </row>
     <row r="7" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="30"/>
     </row>
@@ -980,28 +983,28 @@
     <row r="11" spans="2:4" s="31" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43"/>
       <c r="C11" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="32"/>
     </row>
     <row r="12" spans="2:4" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="43"/>
       <c r="C12" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="32"/>
     </row>
     <row r="13" spans="2:4" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="43"/>
       <c r="C13" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="32"/>
     </row>
     <row r="14" spans="2:4" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="43"/>
       <c r="C14" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="32"/>
     </row>
@@ -1020,7 +1023,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="40"/>
     </row>
@@ -1030,18 +1033,18 @@
     </row>
     <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -1060,10 +1063,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A3:D21"/>
+  <dimension ref="A3:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,13 +1107,13 @@
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -1143,26 +1146,28 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="11"/>
+      <c r="A8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="11"/>
     </row>
@@ -1171,10 +1176,10 @@
         <v>32</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -1183,72 +1188,132 @@
         <v>32</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="C18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1259,10 +1324,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>3</v>
@@ -1317,57 +1382,105 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1380,7 +1493,7 @@
   <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>30</v>
@@ -1419,13 +1532,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -1443,13 +1556,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="28"/>
     </row>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
@@ -1065,8 +1065,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1326,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
     <sheet name="CAT" sheetId="1" r:id="rId2"/>
     <sheet name="CIM" sheetId="2" r:id="rId3"/>
-    <sheet name="Include-CGIs" sheetId="7" r:id="rId4"/>
+    <sheet name="-Include-CGIs" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="61">
   <si>
     <t>git</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>#include</t>
+  </si>
+  <si>
+    <t>/web/search/index.cgi</t>
+  </si>
+  <si>
+    <t>chmod 750 ./web/search/index.cgi</t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1069,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A3:D26"/>
+  <dimension ref="A3:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,64 +1262,85 @@
       <c r="D16" s="28"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>35</v>
+      <c r="A17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>29</v>
+      <c r="A18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-    </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1324,10 +1351,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,57 +1457,69 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>29</v>
+      <c r="A10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1490,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D6"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,23 +1606,37 @@
       <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="D10"/>
+      <c r="A8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -1599,6 +1652,16 @@
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="D15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="63">
   <si>
     <t>git</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>chmod 750 ./web/search/index.cgi</t>
+  </si>
+  <si>
+    <t>chmod 750 ./web/ribbit/index.cgi</t>
+  </si>
+  <si>
+    <t>/web/ribbit/index.cgi</t>
   </si>
 </sst>
 </file>
@@ -1069,10 +1075,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A3:D28"/>
+  <dimension ref="A3:D34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD18"/>
+      <selection activeCell="A20" sqref="A20:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,26 +1172,20 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="11"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -1194,10 +1194,10 @@
         <v>32</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -1206,141 +1206,195 @@
         <v>32</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B16" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B17" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B18" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B19" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="D16" s="28"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>35</v>
       </c>
       <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1351,10 +1405,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,118 +1462,163 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B8" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B9" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B10" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B11" s="48" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="64">
   <si>
     <t>git</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>/web/ribbit/index.cgi</t>
+  </si>
+  <si>
+    <t>chmod 750 ./web/&lt;progDir&gt;/flashuploader/courseleaf.cgi</t>
   </si>
 </sst>
 </file>
@@ -1075,54 +1078,66 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A3:D34"/>
+  <dimension ref="A2:D34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>10</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>37</v>
@@ -1407,7 +1422,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -1081,7 +1081,7 @@
   <dimension ref="A2:D34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
   <si>
     <t>git</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>chmod 750 ./web/&lt;progDir&gt;/flashuploader/courseleaf.cgi</t>
+  </si>
+  <si>
+    <t>*cgi</t>
+  </si>
+  <si>
+    <t>*command</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1087,7 @@
   <dimension ref="A2:D34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A22" sqref="A22:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1338,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="B22" s="47" t="s">
         <v>8</v>
@@ -1344,7 +1350,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>60</v>
@@ -1423,7 +1429,7 @@
   <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,7 +1580,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="B14" s="47" t="s">
         <v>8</v>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>60</v>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="CIM" sheetId="2" r:id="rId3"/>
     <sheet name="-Include-CGIs" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
   <si>
     <t>git</t>
   </si>
@@ -224,12 +224,6 @@
   </si>
   <si>
     <t>chmod 750 ./web/&lt;progDir&gt;/flashuploader/courseleaf.cgi</t>
-  </si>
-  <si>
-    <t>*cgi</t>
-  </si>
-  <si>
-    <t>*command</t>
   </si>
 </sst>
 </file>
@@ -1084,10 +1078,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:D34"/>
+  <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,85 +1331,61 @@
       <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>60</v>
+      <c r="A23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="28"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="11"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+    </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1426,10 +1396,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,67 +1549,43 @@
       <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="A14" s="16"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>60</v>
+      <c r="A15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="28"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="65">
   <si>
     <t>git</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>chmod 750 ./web/&lt;progDir&gt;/flashuploader/courseleaf.cgi</t>
+  </si>
+  <si>
+    <t>searchCgi</t>
   </si>
 </sst>
 </file>
@@ -1078,10 +1081,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:D32"/>
+  <dimension ref="A2:D34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,61 +1334,85 @@
       <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
+      <c r="A22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>29</v>
+      <c r="A23" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-    </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1398,8 +1425,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="65">
   <si>
     <t>git</t>
   </si>
@@ -1083,8 +1083,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:D34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,10 +1423,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:D18"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,43 +1576,67 @@
       <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="28"/>
+      <c r="A14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>29</v>
+      <c r="A15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="11"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="28"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
-    <sheet name="CAT" sheetId="1" r:id="rId2"/>
-    <sheet name="CIM" sheetId="2" r:id="rId3"/>
-    <sheet name="-Include-CGIs" sheetId="7" r:id="rId4"/>
+    <sheet name="cat" sheetId="1" r:id="rId2"/>
+    <sheet name="cim" sheetId="2" r:id="rId3"/>
+    <sheet name="formbuilder" sheetId="8" r:id="rId4"/>
+    <sheet name="-Include-CGIs" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="65">
   <si>
     <t>git</t>
   </si>
@@ -1425,8 +1426,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,6 +1646,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D15"/>
   <sheetViews>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
     <sheet name="cat" sheetId="1" r:id="rId2"/>
     <sheet name="cim" sheetId="2" r:id="rId3"/>
     <sheet name="formbuilder" sheetId="8" r:id="rId4"/>
-    <sheet name="-Include-CGIs" sheetId="7" r:id="rId5"/>
+    <sheet name="-Include-CGIs" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1426,8 +1426,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,7 +1649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
     <sheet name="cat" sheetId="1" r:id="rId2"/>
     <sheet name="cim" sheetId="2" r:id="rId3"/>
-    <sheet name="formbuilder" sheetId="8" r:id="rId4"/>
-    <sheet name="-Include-CGIs" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="pdfgen" sheetId="9" r:id="rId4"/>
+    <sheet name="formbuilder" sheetId="8" r:id="rId5"/>
+    <sheet name="-Include-CGIs" sheetId="7" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
   <si>
     <t>git</t>
   </si>
@@ -1426,7 +1427,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1646,6 +1647,81 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="D10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D4"/>
   <sheetViews>
@@ -1701,7 +1777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D15"/>
   <sheetViews>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
     <sheet name="cat" sheetId="1" r:id="rId2"/>
     <sheet name="cim" sheetId="2" r:id="rId3"/>
-    <sheet name="pdfgen" sheetId="9" r:id="rId4"/>
-    <sheet name="formbuilder" sheetId="8" r:id="rId5"/>
-    <sheet name="-Include-CGIs" sheetId="7" state="hidden" r:id="rId6"/>
+    <sheet name="cgis" sheetId="10" r:id="rId4"/>
+    <sheet name="pdfgen" sheetId="9" r:id="rId5"/>
+    <sheet name="formbuilder" sheetId="8" r:id="rId6"/>
+    <sheet name="-Include-CGIs" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="73">
   <si>
     <t>git</t>
   </si>
@@ -134,9 +135,6 @@
   </si>
   <si>
     <t>Pattern (see instructions sheet)</t>
-  </si>
-  <si>
-    <t>* cgi files</t>
   </si>
   <si>
     <t>cgis</t>
@@ -210,9 +208,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>#include</t>
-  </si>
-  <si>
     <t>/web/search/index.cgi</t>
   </si>
   <si>
@@ -229,6 +224,36 @@
   </si>
   <si>
     <t>searchCgi</t>
+  </si>
+  <si>
+    <t>/fonts/openfonts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/web/&lt;progDir&gt;/fop.xconf </t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>/bin/fop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skeleton </t>
+  </si>
+  <si>
+    <t>warn</t>
+  </si>
+  <si>
+    <t>/web/admin/pdf.cfg</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>pdfgen</t>
+  </si>
+  <si>
+    <t>/web/&lt;progDir&gt;/fop.xconf</t>
   </si>
 </sst>
 </file>
@@ -536,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -644,6 +669,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,7 +957,7 @@
   <dimension ref="B1:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -969,7 +998,7 @@
     </row>
     <row r="7" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="30"/>
     </row>
@@ -1003,28 +1032,28 @@
     <row r="11" spans="2:4" s="31" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43"/>
       <c r="C11" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="32"/>
     </row>
     <row r="12" spans="2:4" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="43"/>
       <c r="C12" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="32"/>
     </row>
     <row r="13" spans="2:4" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="43"/>
       <c r="C13" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="32"/>
     </row>
     <row r="14" spans="2:4" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="43"/>
       <c r="C14" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="32"/>
     </row>
@@ -1043,7 +1072,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="40"/>
     </row>
@@ -1053,18 +1082,18 @@
     </row>
     <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -1083,10 +1112,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:D34"/>
+  <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,41 +1140,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="50" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -1164,32 +1193,28 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>10</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
@@ -1238,10 +1263,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -1253,168 +1278,70 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>52</v>
+      <c r="A19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="28"/>
+        <v>12</v>
+      </c>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="28"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="28"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="11"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
+      <c r="B26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1425,10 +1352,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>3</v>
@@ -1492,10 +1419,10 @@
         <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="25"/>
     </row>
@@ -1507,138 +1434,55 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>30</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="10"/>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="11"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="A11" s="16"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="28"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1648,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,43 +1521,121 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>15</v>
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="A4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+      <c r="A6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="D10"/>
+      <c r="A8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1722,6 +1644,119 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="D10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D4"/>
   <sheetViews>
@@ -1756,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>3</v>
@@ -1777,7 +1812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D15"/>
   <sheetViews>
@@ -1812,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>30</v>
@@ -1821,13 +1856,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -1845,13 +1880,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="28"/>
     </row>
@@ -1863,19 +1898,19 @@
         <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="28"/>
     </row>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
   <si>
     <t>git</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>/web/&lt;progDir&gt;/fop.xconf</t>
+  </si>
+  <si>
+    <t>#skeleton</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1117,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1647,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,25 +1692,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -1716,34 +1721,39 @@
         <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>68</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="D9"/>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="72">
   <si>
     <t>git</t>
   </si>
@@ -251,12 +251,6 @@
   </si>
   <si>
     <t>pdfgen</t>
-  </si>
-  <si>
-    <t>/web/&lt;progDir&gt;/fop.xconf</t>
-  </si>
-  <si>
-    <t>#skeleton</t>
   </si>
 </sst>
 </file>
@@ -1648,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,73 +1686,63 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>68</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
       <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="D10"/>
+      <c r="D9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
   <si>
     <t>git</t>
   </si>
@@ -241,16 +241,13 @@
     <t xml:space="preserve">skeleton </t>
   </si>
   <si>
-    <t>warn</t>
-  </si>
-  <si>
-    <t>/web/admin/pdf.cfg</t>
-  </si>
-  <si>
     <t>include</t>
   </si>
   <si>
     <t>pdfgen</t>
+  </si>
+  <si>
+    <t>report</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1202,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -1275,7 +1272,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>35</v>
@@ -1431,7 +1428,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>35</v>
@@ -1642,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,30 +1716,16 @@
         <v>67</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
       <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="D9"/>
+      <c r="D8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="72">
   <si>
     <t>git</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>report</t>
+  </si>
+  <si>
+    <t>#skeleton</t>
   </si>
 </sst>
 </file>
@@ -1639,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,7 +1686,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>66</v>
@@ -1695,37 +1698,51 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="25" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D7" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="D9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="73">
   <si>
     <t>git</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>#skeleton</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
 </sst>
 </file>
@@ -1111,8 +1114,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1174,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -1644,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="74">
   <si>
     <t>git</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>always</t>
+  </si>
+  <si>
+    <t>formbuilder</t>
   </si>
 </sst>
 </file>
@@ -1114,8 +1117,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,17 +1197,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>10</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
@@ -1345,7 +1344,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1396,17 +1395,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>10</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
@@ -1639,7 +1634,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1647,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1735,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -1758,7 +1756,7 @@
   <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
   <si>
     <t>git</t>
   </si>
@@ -214,9 +214,6 @@
     <t>chmod 750 ./web/search/index.cgi</t>
   </si>
   <si>
-    <t>chmod 750 ./web/ribbit/index.cgi</t>
-  </si>
-  <si>
     <t>/web/ribbit/index.cgi</t>
   </si>
   <si>
@@ -257,6 +254,9 @@
   </si>
   <si>
     <t>formbuilder</t>
+  </si>
+  <si>
+    <t>index.cgi</t>
   </si>
 </sst>
 </file>
@@ -1174,10 +1174,10 @@
         <v>49</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -1197,20 +1197,20 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>35</v>
@@ -1395,10 +1395,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>35</v>
@@ -1487,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D17"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,10 +1544,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="D5" s="11"/>
     </row>
@@ -1565,13 +1565,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B7" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -1580,7 +1580,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>36</v>
@@ -1588,49 +1588,25 @@
       <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="28"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+    </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,28 +1660,28 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1713,25 +1689,25 @@
         <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -1490,7 +1490,7 @@
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1568,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>57</v>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
   <si>
     <t>git</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>index.cgi</t>
+  </si>
+  <si>
+    <t>chmod 750 ./web/ribbit/index.cgi</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1357,7 @@
   <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1559,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>36</v>
@@ -1731,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="75">
   <si>
     <t>git</t>
   </si>
@@ -1490,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,37 +1579,25 @@
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="28"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1734,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="77">
   <si>
     <t>git</t>
   </si>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t>cgi</t>
-  </si>
-  <si>
-    <t>/web/courseleaf</t>
-  </si>
-  <si>
-    <t>/web</t>
   </si>
   <si>
     <t>/web/courseleaf/fonts</t>
@@ -260,6 +254,18 @@
   </si>
   <si>
     <t>chmod 750 ./web/ribbit/index.cgi</t>
+  </si>
+  <si>
+    <t>/web/&lt;progDir&gt;/ciim</t>
+  </si>
+  <si>
+    <t>/web/&lt;progDir&gt;/pdf</t>
+  </si>
+  <si>
+    <t>/web/&lt;progDir&gt;pdf</t>
+  </si>
+  <si>
+    <t>/web/&lt;progDir&gt;/formbuilder</t>
   </si>
 </sst>
 </file>
@@ -978,7 +984,7 @@
     </row>
     <row r="2" spans="2:4" s="6" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="36"/>
     </row>
@@ -991,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1004,7 +1010,7 @@
     </row>
     <row r="7" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="30"/>
     </row>
@@ -1013,62 +1019,62 @@
         <v>1</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="32"/>
     </row>
     <row r="9" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="32"/>
     </row>
     <row r="10" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="32"/>
     </row>
     <row r="11" spans="2:4" s="31" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43"/>
       <c r="C11" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="32"/>
     </row>
     <row r="12" spans="2:4" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="43"/>
       <c r="C12" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="32"/>
     </row>
     <row r="13" spans="2:4" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="43"/>
       <c r="C13" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="32"/>
     </row>
     <row r="14" spans="2:4" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="43"/>
       <c r="C14" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="32"/>
     </row>
     <row r="15" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="32"/>
     </row>
@@ -1078,7 +1084,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="40"/>
     </row>
@@ -1088,18 +1094,18 @@
     </row>
     <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>40</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -1121,7 +1127,7 @@
   <dimension ref="A2:D26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,13 +1143,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1151,36 +1157,36 @@
         <v>0</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -1189,31 +1195,31 @@
         <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -1226,49 +1232,49 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -1280,10 +1286,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
@@ -1296,13 +1302,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -1314,13 +1320,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -1357,7 +1363,7 @@
   <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,13 +1379,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1387,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
@@ -1414,13 +1420,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="25"/>
     </row>
@@ -1432,10 +1438,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
@@ -1448,13 +1454,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -1466,13 +1472,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -1492,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1509,13 +1515,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,22 +1529,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -1547,34 +1553,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -1610,7 +1616,7 @@
   <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,13 +1632,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1640,65 +1646,65 @@
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="D7" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,13 +1745,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1753,13 +1759,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,13 +1801,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1809,22 +1815,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -1833,22 +1839,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="28"/>
     </row>
@@ -1857,22 +1863,22 @@
         <v>2</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="28"/>
     </row>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
@@ -259,13 +259,13 @@
     <t>/web/&lt;progDir&gt;/ciim</t>
   </si>
   <si>
-    <t>/web/&lt;progDir&gt;/pdf</t>
-  </si>
-  <si>
     <t>/web/&lt;progDir&gt;pdf</t>
   </si>
   <si>
     <t>/web/&lt;progDir&gt;/formbuilder</t>
+  </si>
+  <si>
+    <t>/web/&lt;progDir&gt;/navmaster</t>
   </si>
 </sst>
 </file>
@@ -1126,8 +1126,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>8</v>
@@ -1649,7 +1649,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>8</v>
@@ -1728,7 +1728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1762,7 +1762,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>8</v>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -256,16 +256,16 @@
     <t>chmod 750 ./web/ribbit/index.cgi</t>
   </si>
   <si>
-    <t>/web/&lt;progDir&gt;/ciim</t>
-  </si>
-  <si>
-    <t>/web/&lt;progDir&gt;pdf</t>
+    <t>/web/&lt;progDir&gt;/pdf</t>
   </si>
   <si>
     <t>/web/&lt;progDir&gt;/formbuilder</t>
   </si>
   <si>
     <t>/web/&lt;progDir&gt;/navmaster</t>
+  </si>
+  <si>
+    <t>/web/&lt;progDir&gt;/cim</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>8</v>
@@ -1360,10 +1360,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,7 +1396,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>8</v>
@@ -1413,80 +1413,62 @@
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="A8" s="16"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="28"/>
+      <c r="A9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1649,7 +1631,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>8</v>
@@ -1762,7 +1744,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>8</v>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="78">
   <si>
     <t>git</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>/web/&lt;progDir&gt;</t>
-  </si>
-  <si>
-    <t>/web/&lt;progDir&gt;/js</t>
   </si>
   <si>
     <t>/bin/daily.sh</t>
@@ -199,9 +196,6 @@
     <t>/email</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>/web/search/index.cgi</t>
   </si>
   <si>
@@ -266,6 +260,15 @@
   </si>
   <si>
     <t>/web/&lt;progDir&gt;/cim</t>
+  </si>
+  <si>
+    <t>/web/&lt;progDir&gt;/fonts</t>
+  </si>
+  <si>
+    <t>/web/&lt;progDir&gt;/js/ckeditor</t>
+  </si>
+  <si>
+    <t>/web/&lt;progDir&gt;/focussearch</t>
   </si>
 </sst>
 </file>
@@ -968,7 +971,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:D21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -997,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1010,7 +1013,7 @@
     </row>
     <row r="7" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="30"/>
     </row>
@@ -1044,28 +1047,28 @@
     <row r="11" spans="2:4" s="31" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43"/>
       <c r="C11" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="32"/>
     </row>
     <row r="12" spans="2:4" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="43"/>
       <c r="C12" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="32"/>
     </row>
     <row r="13" spans="2:4" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="43"/>
       <c r="C13" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="32"/>
     </row>
     <row r="14" spans="2:4" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="43"/>
       <c r="C14" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="32"/>
     </row>
@@ -1084,7 +1087,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="40"/>
     </row>
@@ -1094,18 +1097,18 @@
     </row>
     <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -1126,8 +1129,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>7</v>
@@ -1168,25 +1171,25 @@
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>48</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -1198,7 +1201,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>8</v>
@@ -1206,20 +1209,20 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -1232,49 +1235,49 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="C12" s="10" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -1286,10 +1289,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
@@ -1305,10 +1308,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -1320,10 +1323,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>10</v>
@@ -1379,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>7</v>
@@ -1396,7 +1399,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>8</v>
@@ -1404,32 +1407,32 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
@@ -1439,10 +1442,10 @@
         <v>16</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -1454,10 +1457,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>10</v>
@@ -1497,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>7</v>
@@ -1511,22 +1514,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -1535,34 +1538,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -1614,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>7</v>
@@ -1631,7 +1634,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>8</v>
@@ -1639,54 +1642,54 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="D7" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1727,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>7</v>
@@ -1741,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>8</v>
@@ -1783,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>7</v>
@@ -1797,22 +1800,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -1830,13 +1833,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="28"/>
     </row>
@@ -1848,19 +1851,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="28"/>
     </row>

--- a/workbooks/courseleafPatchControl.xlsx
+++ b/workbooks/courseleafPatchControl.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="76">
   <si>
     <t>git</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>skeleton</t>
-  </si>
-  <si>
-    <t>/web/courseleaf/focussearch</t>
   </si>
   <si>
     <t>Pattern (see instructions sheet)</t>
@@ -266,9 +263,6 @@
   </si>
   <si>
     <t>/web/&lt;progDir&gt;/js/ckeditor</t>
-  </si>
-  <si>
-    <t>/web/&lt;progDir&gt;/focussearch</t>
   </si>
 </sst>
 </file>
@@ -972,7 +966,7 @@
   <dimension ref="B1:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1013,7 +1007,7 @@
     </row>
     <row r="7" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="30"/>
     </row>
@@ -1047,28 +1041,28 @@
     <row r="11" spans="2:4" s="31" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43"/>
       <c r="C11" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="32"/>
     </row>
     <row r="12" spans="2:4" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="43"/>
       <c r="C12" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="32"/>
     </row>
     <row r="13" spans="2:4" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="43"/>
       <c r="C13" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="32"/>
     </row>
     <row r="14" spans="2:4" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="43"/>
       <c r="C14" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="32"/>
     </row>
@@ -1087,7 +1081,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="40"/>
     </row>
@@ -1097,18 +1091,18 @@
     </row>
     <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -1127,10 +1121,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:D26"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>7</v>
@@ -1171,25 +1165,25 @@
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -1201,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>8</v>
@@ -1209,20 +1203,20 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>64</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -1241,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -1253,7 +1247,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -1262,97 +1256,85 @@
         <v>29</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
+      <c r="A16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1363,10 +1345,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>7</v>
@@ -1399,7 +1381,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>8</v>
@@ -1407,10 +1389,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
@@ -1420,58 +1402,70 @@
         <v>29</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1500,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>7</v>
@@ -1514,7 +1508,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>27</v>
@@ -1523,13 +1517,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -1538,34 +1532,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -1617,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>7</v>
@@ -1634,7 +1628,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>8</v>
@@ -1642,28 +1636,28 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,25 +1665,25 @@
         <v>29</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1730,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>7</v>
@@ -1744,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>8</v>
@@ -1786,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>7</v>
@@ -1800,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>27</v>
@@ -1809,13 +1803,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -1833,13 +1827,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="28"/>
     </row>
@@ -1851,19 +1845,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="28"/>
     </row>
